--- a/DigitalProductCybersecurityReport.xlsx
+++ b/DigitalProductCybersecurityReport.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OscarAzevedo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9088B42-518F-4BC9-8A40-8FCF5359B2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45458FC-319B-4012-92C8-7CCAF5DD74FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ficha de entrega de PD" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ficha de entrega de PD'!$B$1:$G$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ficha de entrega de PD'!$B$1:$G$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>Alojamento</t>
   </si>
@@ -369,10 +369,16 @@
     </r>
   </si>
   <si>
-    <t>v1.1 2025-09-08</t>
-  </si>
-  <si>
     <t>https://github.com/si-aeportugal/isMyWebsiteInsecure</t>
+  </si>
+  <si>
+    <t>v1.2 2026-01-18</t>
+  </si>
+  <si>
+    <t>URL do Produto Digital</t>
+  </si>
+  <si>
+    <t>Data Entrega Relatório</t>
   </si>
 </sst>
 </file>
@@ -695,7 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -812,6 +818,52 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -821,6 +873,111 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -830,12 +987,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -845,148 +996,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1271,10 +1284,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -1283,7 +1296,8 @@
     <col min="2" max="2" width="53.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.88671875" style="1" customWidth="1"/>
     <col min="9" max="18" width="9.109375" style="35"/>
@@ -1292,25 +1306,25 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="44"/>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="44"/>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="44"/>
@@ -1320,7 +1334,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
@@ -1344,11 +1358,11 @@
       <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="87"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
@@ -1365,11 +1379,11 @@
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
@@ -1384,15 +1398,13 @@
     <row r="8" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="44"/>
       <c r="B8" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
@@ -1404,13 +1416,17 @@
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
     </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="44"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97"/>
       <c r="G9" s="9"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
@@ -1423,15 +1439,13 @@
       <c r="Q9" s="36"/>
       <c r="R9" s="36"/>
     </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="44"/>
-      <c r="B10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="76"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="9"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
@@ -1447,12 +1461,12 @@
     <row r="11" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="44"/>
       <c r="B11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="76"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="9"/>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
@@ -1465,13 +1479,15 @@
       <c r="Q11" s="36"/>
       <c r="R11" s="36"/>
     </row>
-    <row r="12" spans="1:18" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="44"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="83"/>
       <c r="G12" s="9"/>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
@@ -1484,16 +1500,14 @@
       <c r="Q12" s="36"/>
       <c r="R12" s="36"/>
     </row>
-    <row r="13" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="44"/>
-      <c r="B13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="78"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="9"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
@@ -1507,14 +1521,12 @@
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="44"/>
-      <c r="B14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="28" t="s">
-        <v>19</v>
-      </c>
+      <c r="B14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
       <c r="F14" s="79"/>
       <c r="G14" s="80"/>
       <c r="I14" s="36"/>
@@ -1531,15 +1543,15 @@
     <row r="15" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="44"/>
       <c r="B15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
+        <v>17</v>
+      </c>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
       <c r="E15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="79"/>
-      <c r="G15" s="80"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="99"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
@@ -1551,14 +1563,18 @@
       <c r="Q15" s="36"/>
       <c r="R15" s="36"/>
     </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="44"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="9"/>
+      <c r="B16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="81"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="98"/>
+      <c r="G16" s="99"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
@@ -1570,847 +1586,845 @@
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
     </row>
-    <row r="17" spans="1:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="44"/>
-    </row>
-    <row r="18" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="9"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+    </row>
+    <row r="18" spans="1:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="44"/>
-      <c r="B18" s="16" t="s">
+    </row>
+    <row r="19" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="44"/>
+      <c r="B19" s="16" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="44"/>
-      <c r="B19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
     </row>
     <row r="20" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="44"/>
-      <c r="B20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="I20" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
+      <c r="B20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
     </row>
     <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="44"/>
       <c r="B21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="90"/>
+        <v>23</v>
+      </c>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="89"/>
+      <c r="I21" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
     </row>
     <row r="22" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="44"/>
-      <c r="B22" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="68"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="90"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="92"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
     </row>
     <row r="23" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="44"/>
       <c r="B23" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="50"/>
+        <v>58</v>
+      </c>
+      <c r="C23" s="64"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="68"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
     </row>
     <row r="24" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="44"/>
       <c r="B24" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="33"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
+        <v>18</v>
+      </c>
+      <c r="C24" s="64"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
     </row>
     <row r="25" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="44"/>
       <c r="B25" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="53"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="90"/>
+        <v>61</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="33"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
     </row>
     <row r="26" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="44"/>
       <c r="B26" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="102"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="104"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+    </row>
+    <row r="27" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="44"/>
+      <c r="B27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-    </row>
-    <row r="27" spans="1:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="44"/>
-    </row>
-    <row r="28" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="104"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+    </row>
+    <row r="28" spans="1:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="44"/>
-      <c r="B28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="55"/>
-      <c r="I28" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="44"/>
-      <c r="B29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="74"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
+      <c r="B29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
+      <c r="I29" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="44"/>
       <c r="B30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="90"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="95"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="44"/>
       <c r="B31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="66"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
+        <v>1</v>
+      </c>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="89"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="44"/>
       <c r="B32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="87"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="89"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+    </row>
+    <row r="33" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="44"/>
+      <c r="B33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="44"/>
-    </row>
-    <row r="34" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="14"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="44"/>
-      <c r="B34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="I34" s="90" t="s">
-        <v>46</v>
-      </c>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="90"/>
     </row>
     <row r="35" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="44"/>
-      <c r="B35" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="50"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="90"/>
+      <c r="B35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="I35" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
     </row>
     <row r="36" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="44"/>
-      <c r="B36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="19"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="90"/>
+      <c r="B36" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="71"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="66"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
     </row>
     <row r="37" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="44"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="50"/>
+        <v>34</v>
+      </c>
+      <c r="C37" s="64"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="66"/>
       <c r="F37" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G37" s="19"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="90"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+    </row>
+    <row r="38" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="44"/>
       <c r="B38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="50"/>
+        <v>35</v>
+      </c>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="66"/>
       <c r="F38" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G38" s="19"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="90"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39" s="44"/>
       <c r="B39" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="50"/>
+        <v>36</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="66"/>
       <c r="F39" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G39" s="19"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="90"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="90"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="90"/>
-      <c r="R39" s="90"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A40" s="44"/>
       <c r="B40" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="94"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="66"/>
       <c r="F40" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="23"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="90"/>
-      <c r="R40" s="90"/>
+      <c r="G40" s="19"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A41" s="44"/>
       <c r="B41" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="97"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="99"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="90"/>
-      <c r="P41" s="90"/>
-      <c r="Q41" s="90"/>
-      <c r="R41" s="90"/>
+        <v>37</v>
+      </c>
+      <c r="C41" s="71"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="23"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A42" s="44"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="102"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-    </row>
-    <row r="43" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="55"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="57"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A43" s="44"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="105"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="90"/>
-      <c r="N43" s="90"/>
-      <c r="O43" s="90"/>
-      <c r="P43" s="90"/>
-      <c r="Q43" s="90"/>
-      <c r="R43" s="90"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="C43" s="58"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+    </row>
+    <row r="44" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="44"/>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="63"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A45" s="44"/>
+      <c r="B45" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="18" t="s">
+      <c r="C45" s="64"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="92"/>
-      <c r="G44" s="93"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="90"/>
-      <c r="M44" s="90"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="90"/>
-      <c r="P44" s="90"/>
-      <c r="Q44" s="90"/>
-      <c r="R44" s="90"/>
-    </row>
-    <row r="45" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="44"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-    </row>
-    <row r="46" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F45" s="69"/>
+      <c r="G45" s="70"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="50"/>
+    </row>
+    <row r="46" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="44"/>
-      <c r="B46" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="I46" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="J46" s="91"/>
-      <c r="K46" s="91"/>
-      <c r="L46" s="91"/>
-      <c r="M46" s="91"/>
-      <c r="N46" s="91"/>
-      <c r="O46" s="91"/>
-      <c r="P46" s="91"/>
-      <c r="Q46" s="91"/>
-      <c r="R46" s="91"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
     </row>
     <row r="47" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="44"/>
-      <c r="B47" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="91"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="91"/>
-      <c r="O47" s="91"/>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="91"/>
-      <c r="R47" s="91"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B47" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="I47" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="68"/>
+    </row>
+    <row r="48" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="44"/>
       <c r="B48" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="19"/>
-      <c r="I48" s="91"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="91"/>
-      <c r="L48" s="91"/>
-      <c r="M48" s="91"/>
-      <c r="N48" s="91"/>
-      <c r="O48" s="91"/>
-      <c r="P48" s="91"/>
-      <c r="Q48" s="91"/>
-      <c r="R48" s="91"/>
+        <v>64</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="68"/>
+      <c r="Q48" s="68"/>
+      <c r="R48" s="68"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A49" s="44"/>
       <c r="B49" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="50"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="64"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="66"/>
       <c r="F49" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G49" s="19"/>
-      <c r="I49" s="91"/>
-      <c r="J49" s="91"/>
-      <c r="K49" s="91"/>
-      <c r="L49" s="91"/>
-      <c r="M49" s="91"/>
-      <c r="N49" s="91"/>
-      <c r="O49" s="91"/>
-      <c r="P49" s="91"/>
-      <c r="Q49" s="91"/>
-      <c r="R49" s="91"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="68"/>
+      <c r="Q49" s="68"/>
+      <c r="R49" s="68"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A50" s="44"/>
       <c r="B50" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="66"/>
       <c r="F50" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G50" s="19"/>
-      <c r="I50" s="91"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="91"/>
-      <c r="L50" s="91"/>
-      <c r="M50" s="91"/>
-      <c r="N50" s="91"/>
-      <c r="O50" s="91"/>
-      <c r="P50" s="91"/>
-      <c r="Q50" s="91"/>
-      <c r="R50" s="91"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="68"/>
+      <c r="O50" s="68"/>
+      <c r="P50" s="68"/>
+      <c r="Q50" s="68"/>
+      <c r="R50" s="68"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A51" s="44"/>
       <c r="B51" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="20"/>
-      <c r="I51" s="91"/>
-      <c r="J51" s="91"/>
-      <c r="K51" s="91"/>
-      <c r="L51" s="91"/>
-      <c r="M51" s="91"/>
-      <c r="N51" s="91"/>
-      <c r="O51" s="91"/>
-      <c r="P51" s="91"/>
-      <c r="Q51" s="91"/>
-      <c r="R51" s="91"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="64"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="19"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="68"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="68"/>
+      <c r="Q51" s="68"/>
+      <c r="R51" s="68"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A52" s="44"/>
       <c r="B52" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="3"/>
-      <c r="I52" s="91"/>
-      <c r="J52" s="91"/>
-      <c r="K52" s="91"/>
-      <c r="L52" s="91"/>
-      <c r="M52" s="91"/>
-      <c r="N52" s="91"/>
-      <c r="O52" s="91"/>
-      <c r="P52" s="91"/>
-      <c r="Q52" s="91"/>
-      <c r="R52" s="91"/>
+        <v>65</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="53"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="20"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="68"/>
+      <c r="N52" s="68"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="68"/>
+      <c r="Q52" s="68"/>
+      <c r="R52" s="68"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A53" s="44"/>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="105"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="3"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="68"/>
+      <c r="M53" s="68"/>
+      <c r="N53" s="68"/>
+      <c r="O53" s="68"/>
+      <c r="P53" s="68"/>
+      <c r="Q53" s="68"/>
+      <c r="R53" s="68"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A54" s="44"/>
+      <c r="B54" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
-    </row>
-    <row r="54" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="44"/>
-      <c r="B54" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="50"/>
-      <c r="I54" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="J54" s="91"/>
-      <c r="K54" s="91"/>
-      <c r="L54" s="91"/>
-      <c r="M54" s="91"/>
-      <c r="N54" s="91"/>
-      <c r="O54" s="91"/>
-      <c r="P54" s="91"/>
-      <c r="Q54" s="91"/>
-      <c r="R54" s="91"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="38"/>
+    </row>
+    <row r="55" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="44"/>
       <c r="B55" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="22"/>
       <c r="D55" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="50"/>
-      <c r="I55" s="91"/>
-      <c r="J55" s="91"/>
-      <c r="K55" s="91"/>
-      <c r="L55" s="91"/>
-      <c r="M55" s="91"/>
-      <c r="N55" s="91"/>
-      <c r="O55" s="91"/>
-      <c r="P55" s="91"/>
-      <c r="Q55" s="91"/>
-      <c r="R55" s="91"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="66"/>
+      <c r="I55" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="68"/>
+      <c r="Q55" s="68"/>
+      <c r="R55" s="68"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A56" s="44"/>
       <c r="B56" s="5" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="50"/>
-      <c r="I56" s="91"/>
-      <c r="J56" s="91"/>
-      <c r="K56" s="91"/>
-      <c r="L56" s="91"/>
-      <c r="M56" s="91"/>
-      <c r="N56" s="91"/>
-      <c r="O56" s="91"/>
-      <c r="P56" s="91"/>
-      <c r="Q56" s="91"/>
-      <c r="R56" s="91"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="66"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="68"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="68"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A57" s="44"/>
-      <c r="B57" s="18" t="s">
-        <v>82</v>
+      <c r="B57" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E57" s="48"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="50"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="91"/>
-      <c r="K57" s="91"/>
-      <c r="L57" s="91"/>
-      <c r="M57" s="91"/>
-      <c r="N57" s="91"/>
-      <c r="O57" s="91"/>
-      <c r="P57" s="91"/>
-      <c r="Q57" s="91"/>
-      <c r="R57" s="91"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="66"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A58" s="44"/>
       <c r="B58" s="18" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E58" s="48"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="50"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="66"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="68"/>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="68"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A59" s="44"/>
-      <c r="B59" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="51"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="53"/>
+      <c r="B59" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="22"/>
+      <c r="D59" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="64"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="66"/>
       <c r="I59" s="39"/>
       <c r="J59" s="39"/>
       <c r="K59" s="39"/>
@@ -2425,13 +2439,13 @@
     <row r="60" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A60" s="44"/>
       <c r="B60" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
+        <v>59</v>
+      </c>
+      <c r="C60" s="102"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="103"/>
+      <c r="F60" s="103"/>
+      <c r="G60" s="104"/>
       <c r="I60" s="39"/>
       <c r="J60" s="39"/>
       <c r="K60" s="39"/>
@@ -2445,12 +2459,14 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A61" s="44"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
+      <c r="B61" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="102"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="103"/>
+      <c r="F61" s="103"/>
+      <c r="G61" s="104"/>
       <c r="I61" s="39"/>
       <c r="J61" s="39"/>
       <c r="K61" s="39"/>
@@ -2463,130 +2479,131 @@
       <c r="R61" s="39"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A62" s="47"/>
-      <c r="B62" s="42" t="s">
+      <c r="A62" s="44"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A63" s="47"/>
+      <c r="B63" s="42" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="44"/>
-      <c r="B63" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" s="95"/>
-      <c r="D63" s="95"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="45"/>
-      <c r="I63" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="J63" s="90"/>
-      <c r="K63" s="90"/>
-      <c r="L63" s="90"/>
-      <c r="M63" s="90"/>
-      <c r="N63" s="90"/>
-      <c r="O63" s="90"/>
-      <c r="P63" s="90"/>
-      <c r="Q63" s="90"/>
-      <c r="R63" s="90"/>
+      <c r="G63" s="108" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="64" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="44"/>
-      <c r="B64" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="95"/>
-      <c r="D64" s="95"/>
-      <c r="E64" s="95"/>
-      <c r="F64" s="96"/>
-      <c r="G64" s="45"/>
-      <c r="I64" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="J64" s="90"/>
-      <c r="K64" s="90"/>
-      <c r="L64" s="90"/>
-      <c r="M64" s="90"/>
-      <c r="N64" s="90"/>
-      <c r="O64" s="90"/>
-      <c r="P64" s="90"/>
-      <c r="Q64" s="90"/>
-      <c r="R64" s="90"/>
+      <c r="B64" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="109"/>
+      <c r="I64" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="50"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="50"/>
+      <c r="P64" s="50"/>
+      <c r="Q64" s="50"/>
+      <c r="R64" s="50"/>
     </row>
     <row r="65" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="44"/>
-      <c r="B65" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="95"/>
-      <c r="D65" s="95"/>
-      <c r="E65" s="95"/>
-      <c r="F65" s="96"/>
+      <c r="B65" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="45"/>
       <c r="G65" s="45"/>
-      <c r="I65" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="J65" s="90"/>
-      <c r="K65" s="90"/>
-      <c r="L65" s="90"/>
-      <c r="M65" s="90"/>
-      <c r="N65" s="90"/>
-      <c r="O65" s="90"/>
-      <c r="P65" s="90"/>
-      <c r="Q65" s="90"/>
-      <c r="R65" s="90"/>
+      <c r="I65" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="50"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="50"/>
+      <c r="P65" s="50"/>
+      <c r="Q65" s="50"/>
+      <c r="R65" s="50"/>
     </row>
     <row r="66" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="44"/>
-      <c r="B66" s="95" t="s">
+      <c r="B66" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="I66" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="50"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="50"/>
+      <c r="P66" s="50"/>
+      <c r="Q66" s="50"/>
+      <c r="R66" s="50"/>
+    </row>
+    <row r="67" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="44"/>
+      <c r="B67" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="95"/>
-      <c r="D66" s="95"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="96"/>
-      <c r="G66" s="46"/>
-      <c r="I66" s="90" t="s">
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="I67" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J66" s="90"/>
-      <c r="K66" s="90"/>
-      <c r="L66" s="90"/>
-      <c r="M66" s="90"/>
-      <c r="N66" s="90"/>
-      <c r="O66" s="90"/>
-      <c r="P66" s="90"/>
-      <c r="Q66" s="90"/>
-      <c r="R66" s="90"/>
-    </row>
-    <row r="69" spans="1:18" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A69" s="29"/>
-      <c r="B69" s="42" t="s">
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="50"/>
+      <c r="P67" s="50"/>
+      <c r="Q67" s="50"/>
+      <c r="R67" s="50"/>
+    </row>
+    <row r="70" spans="1:18" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A70" s="29"/>
+      <c r="B70" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-    </row>
-    <row r="70" spans="1:18" s="30" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="29"/>
-      <c r="B70" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="89"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="89"/>
-      <c r="F70" s="89"/>
-      <c r="G70" s="89"/>
-      <c r="I70" s="40"/>
+      <c r="I70" s="35"/>
       <c r="J70" s="35"/>
       <c r="K70" s="35"/>
       <c r="L70" s="35"/>
@@ -2597,23 +2614,20 @@
       <c r="Q70" s="35"/>
       <c r="R70" s="35"/>
     </row>
-    <row r="71" spans="1:18" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" s="30" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="29"/>
-      <c r="B71" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="35"/>
+      <c r="B71" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="I71" s="40"/>
       <c r="J71" s="35"/>
       <c r="K71" s="35"/>
-      <c r="L71" s="41"/>
+      <c r="L71" s="35"/>
       <c r="M71" s="35"/>
       <c r="N71" s="35"/>
       <c r="O71" s="35"/>
@@ -2624,7 +2638,7 @@
     <row r="72" spans="1:18" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="29"/>
       <c r="B72" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" s="32" t="s">
         <v>11</v>
@@ -2637,7 +2651,7 @@
       <c r="I72" s="35"/>
       <c r="J72" s="35"/>
       <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
+      <c r="L72" s="41"/>
       <c r="M72" s="35"/>
       <c r="N72" s="35"/>
       <c r="O72" s="35"/>
@@ -2648,7 +2662,7 @@
     <row r="73" spans="1:18" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
       <c r="B73" s="31" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C73" s="32" t="s">
         <v>11</v>
@@ -2672,10 +2686,10 @@
     <row r="74" spans="1:18" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="29"/>
       <c r="B74" s="31" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D74" s="31"/>
       <c r="E74" s="31"/>
@@ -2696,10 +2710,10 @@
     <row r="75" spans="1:18" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="29"/>
       <c r="B75" s="31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" s="31"/>
       <c r="E75" s="31"/>
@@ -2720,7 +2734,7 @@
     <row r="76" spans="1:18" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="29"/>
       <c r="B76" s="31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" s="32" t="s">
         <v>4</v>
@@ -2743,14 +2757,17 @@
     </row>
     <row r="77" spans="1:18" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="29"/>
-      <c r="B77" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="89"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="89"/>
-      <c r="G77" s="89"/>
+      <c r="B77" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
       <c r="I77" s="35"/>
       <c r="J77" s="35"/>
       <c r="K77" s="35"/>
@@ -2762,7 +2779,16 @@
       <c r="Q77" s="35"/>
       <c r="R77" s="35"/>
     </row>
-    <row r="78" spans="1:18" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="29"/>
+      <c r="B78" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="67"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
       <c r="I78" s="35"/>
       <c r="J78" s="35"/>
       <c r="K78" s="35"/>
@@ -2774,20 +2800,21 @@
       <c r="Q78" s="35"/>
       <c r="R78" s="35"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="43"/>
+    <row r="79" spans="1:18" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A80" s="43"/>
-      <c r="B80" s="43" t="s">
-        <v>75</v>
-      </c>
+      <c r="B80" s="43"/>
       <c r="C80" s="43"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
@@ -2797,7 +2824,7 @@
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="43"/>
       <c r="B81" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C81" s="43"/>
       <c r="D81" s="43"/>
@@ -2807,7 +2834,9 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
+      <c r="B82" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="C82" s="43"/>
       <c r="D82" s="43"/>
       <c r="E82" s="43"/>
@@ -2816,12 +2845,8 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="43"/>
-      <c r="B83" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C83" s="106" t="s">
-        <v>85</v>
-      </c>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="43"/>
@@ -2829,123 +2854,141 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
+      <c r="B84" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" s="48" t="s">
+        <v>84</v>
+      </c>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="43"/>
       <c r="G84" s="43"/>
     </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="I20:R26"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="I63:R63"/>
-    <mergeCell ref="I64:R64"/>
-    <mergeCell ref="I65:R65"/>
-    <mergeCell ref="I66:R66"/>
+  <mergeCells count="62">
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I28:R31"/>
-    <mergeCell ref="C41:G43"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="I34:R44"/>
-    <mergeCell ref="I46:R52"/>
-    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="I35:R45"/>
+    <mergeCell ref="I47:R53"/>
     <mergeCell ref="E55:G55"/>
     <mergeCell ref="E56:G56"/>
-    <mergeCell ref="I54:R57"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="I55:R58"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F45:G45"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="I21:R27"/>
+    <mergeCell ref="I64:R64"/>
+    <mergeCell ref="I65:R65"/>
+    <mergeCell ref="I66:R66"/>
+    <mergeCell ref="I67:R67"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="I29:R32"/>
+    <mergeCell ref="C42:G44"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C24:D24"/>
   </mergeCells>
-  <dataValidations xWindow="565" yWindow="784" count="34">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data início ONLINE" prompt="Data em que o produto deve estar online." sqref="C8:C9" xr:uid="{B2A8D8F9-31C3-45C4-9E36-03061C4B2F49}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data para colocação OFFLINE" prompt="No caso de produtos financiados, é a data determinada pela entidade financiadora._x000a_No caso de produtos não financiados, deve ser a data final de garantia do produto (min de 3 anos)._x000a__x000a_" sqref="E8:E9 F9" xr:uid="{6490FD87-CA14-43EA-BA97-1DF413607A77}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nome do Projeto" prompt="Se o produto digital for criado no âmbito de um projecto, escrever aqui o nome do projeto." sqref="C7" xr:uid="{6AC03261-5B37-4D5C-BE65-1911C3E21938}"/>
+  <dataValidations xWindow="565" yWindow="784" count="35">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data início ONLINE" prompt="Data em que o produto deve estar online." sqref="C9:C10" xr:uid="{B2A8D8F9-31C3-45C4-9E36-03061C4B2F49}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data para colocação OFFLINE" prompt="No caso de produtos financiados, é a data determinada pela entidade financiadora._x000a_No caso de produtos não financiados, deve ser a data final de garantia do produto (min de 3 anos)._x000a__x000a_" sqref="E9:E10 F10" xr:uid="{6490FD87-CA14-43EA-BA97-1DF413607A77}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nome do Projeto" prompt="Se o produto digital for criado no âmbito de um projecto, escrever aqui o nome do projeto." sqref="C7:C8" xr:uid="{6AC03261-5B37-4D5C-BE65-1911C3E21938}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="exemplo:" prompt="Ferramenta de diagnóstico de maturidade financeira" sqref="C6:G6" xr:uid="{86865CB7-8E81-4417-B524-113AD0ABFE80}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Ajuda" prompt="selecione da lista" sqref="C10" xr:uid="{D1ABBA89-54A3-4E74-BD2B-C2E155ACCFD8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Ajuda" prompt="selecione da lista" sqref="C11" xr:uid="{D1ABBA89-54A3-4E74-BD2B-C2E155ACCFD8}">
       <formula1>"AEP, EXPONOR, FUNDAÇÃO AEP"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Identificação da empresa " prompt="Empresa responsável pelo desenvolvimento do Produto Digital." sqref="C13" xr:uid="{63AFF89D-079E-4800-AC4F-EBEB4F9C91BD}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplos:" prompt="Dominios.pt, Akamai,..." sqref="C20:G20" xr:uid="{17B6C6C6-A233-4A01-BE47-1D5145A55FAD}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Escolha da lista" prompt="Dedicado, Partilhado, AEP, outro." sqref="C21" xr:uid="{834F52CA-CAD2-4116-82F9-5794E193E962}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Identificação da empresa " prompt="Empresa responsável pelo desenvolvimento do Produto Digital." sqref="C14" xr:uid="{63AFF89D-079E-4800-AC4F-EBEB4F9C91BD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplos:" prompt="Dominios.pt, Akamai,..." sqref="C21:G21" xr:uid="{17B6C6C6-A233-4A01-BE47-1D5145A55FAD}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Escolha da lista" prompt="Dedicado, Partilhado, AEP, outro." sqref="C22" xr:uid="{834F52CA-CAD2-4116-82F9-5794E193E962}">
       <formula1>"Partilhado, Dedicado, AEP, Outro"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Alerta" prompt="No caso de aquisição de registo de domínio este deve ser adquirido, com propriedade e gestão do G.AEP, por todo o período online (obrigatório);" sqref="C30:G30" xr:uid="{9C271D77-18EB-4D68-B687-353F2408CE67}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="DNSMadeEasy" sqref="C31:G31" xr:uid="{44610B83-392A-4395-B376-78667EA20B66}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="aeportugal.pt" sqref="C29:G29" xr:uid="{405BAD34-1298-4558-9A92-DB13E34734C9}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Alerta:" prompt="No caso de aquisição de registo de domínio este deve ser adquirido, com propriedade e gestão do G.AEP, por todo o período online (obrigatório);" sqref="B28" xr:uid="{85C326FC-F003-44C8-87C0-5EDF1ABB79DC}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Escolha da lista" prompt="Sim ou Não" sqref="C32 C28 C47 C51 C54:C58 C61" xr:uid="{BE3FC26A-B720-4A7F-A815-CAE765733B54}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Alerta" prompt="No caso de aquisição de registo de domínio este deve ser adquirido, com propriedade e gestão do G.AEP, por todo o período online (obrigatório);" sqref="C31:G31" xr:uid="{9C271D77-18EB-4D68-B687-353F2408CE67}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="DNSMadeEasy" sqref="C32:G32" xr:uid="{44610B83-392A-4395-B376-78667EA20B66}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="aeportugal.pt" sqref="C30:G30" xr:uid="{405BAD34-1298-4558-9A92-DB13E34734C9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Alerta:" prompt="No caso de aquisição de registo de domínio este deve ser adquirido, com propriedade e gestão do G.AEP, por todo o período online (obrigatório);" sqref="B29" xr:uid="{85C326FC-F003-44C8-87C0-5EDF1ABB79DC}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Escolha da lista" prompt="Sim ou Não" sqref="C33 C29 C48 C52 C55:C59 C62" xr:uid="{BE3FC26A-B720-4A7F-A815-CAE765733B54}">
       <formula1>"Sim, Não"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="Ubuntu " sqref="C36" xr:uid="{193D9738-6373-417E-8A9A-622FF4C83B58}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="(Ubuntu) 24.04.1 LTS" sqref="F36:G36" xr:uid="{0E977B91-759A-40FF-8884-F68C86ED0C46}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="Apache" sqref="C37" xr:uid="{3F5C8356-16BD-4E57-B16A-A1571AEDBC51}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="(Apache) 2.4.63" sqref="F37:G37" xr:uid="{DB7A0E7B-B97D-434B-8432-02278CEE2EB1}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="MySQL" sqref="C38" xr:uid="{52980C4A-7F52-43A8-9D9A-D97EFBDB8A7E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="(MySQL) 8.0.4" sqref="F38:F40 G38 F48:F50" xr:uid="{A7E6D243-8C73-4BCA-B457-A38BD028A9FC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="PHP" sqref="C39:E39" xr:uid="{5251364D-81EC-4470-81F8-EA8E50EC11E3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="(PHP) 8.4.3" sqref="G39" xr:uid="{9A2745D6-B0D3-4EE1-B0A6-2D0E3423016B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="WORDPRESS" sqref="C40:E40" xr:uid="{6875D5CF-7E35-492F-BB34-9BFE385BA43C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="(WORDPRESS) 6.7" sqref="G40 G51" xr:uid="{B26FA4E9-2072-44EF-8073-E0749B320338}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Alerta" prompt="Incluir todas as que estão a ser utilizadas separadas por virgulas. Nome e versão. Exemplo: JQuery 3.7.1, ..." sqref="C41:G43" xr:uid="{941C0155-68B4-4657-93CD-37489557C5EB}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="Microsoft Defender" sqref="C48:E48" xr:uid="{DED2D8EC-0B6B-474C-9967-7FE9D9970E97}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="UFW" sqref="C49:E49" xr:uid="{7E9B97F3-C9EC-4101-8ABE-BD875EFBC39F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="Wordfence" sqref="C50:E50" xr:uid="{0FB7A3B7-EB72-4B6F-8789-405F41196623}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Versão Utilizada" prompt="Versão que está instalada no momento da entrega do produto digital." sqref="G48:G50" xr:uid="{A70934CB-E6B5-4BD7-88F9-C5E96F6D5611}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nome" prompt="Digite o nome" sqref="C22:D23" xr:uid="{E06B644A-C882-4A0D-9789-C4F9FF0FD3AC}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G63:G66" xr:uid="{49B53EC3-CD79-44AB-B62F-01B83708A09F}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="Ubuntu " sqref="C37" xr:uid="{193D9738-6373-417E-8A9A-622FF4C83B58}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="(Ubuntu) 24.04.1 LTS" sqref="F37:G37" xr:uid="{0E977B91-759A-40FF-8884-F68C86ED0C46}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="Apache" sqref="C38" xr:uid="{3F5C8356-16BD-4E57-B16A-A1571AEDBC51}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="(Apache) 2.4.63" sqref="F38:G38" xr:uid="{DB7A0E7B-B97D-434B-8432-02278CEE2EB1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="MySQL" sqref="C39" xr:uid="{52980C4A-7F52-43A8-9D9A-D97EFBDB8A7E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="(MySQL) 8.0.4" sqref="F39:F41 G39 F49:F51" xr:uid="{A7E6D243-8C73-4BCA-B457-A38BD028A9FC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="PHP" sqref="C40:E40" xr:uid="{5251364D-81EC-4470-81F8-EA8E50EC11E3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="(PHP) 8.4.3" sqref="G40" xr:uid="{9A2745D6-B0D3-4EE1-B0A6-2D0E3423016B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="WORDPRESS" sqref="C41:E41" xr:uid="{6875D5CF-7E35-492F-BB34-9BFE385BA43C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="(WORDPRESS) 6.7" sqref="G41 G52" xr:uid="{B26FA4E9-2072-44EF-8073-E0749B320338}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Alerta" prompt="Incluir todas as que estão a ser utilizadas separadas por virgulas. Nome e versão. Exemplo: JQuery 3.7.1, ..." sqref="C42:G44" xr:uid="{941C0155-68B4-4657-93CD-37489557C5EB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="Microsoft Defender" sqref="C49:E49" xr:uid="{DED2D8EC-0B6B-474C-9967-7FE9D9970E97}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="UFW" sqref="C50:E50" xr:uid="{7E9B97F3-C9EC-4101-8ABE-BD875EFBC39F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Exemplo:" prompt="Wordfence" sqref="C51:E51" xr:uid="{0FB7A3B7-EB72-4B6F-8789-405F41196623}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Versão Utilizada" prompt="Versão que está instalada no momento da entrega do produto digital." sqref="G49:G51" xr:uid="{A70934CB-E6B5-4BD7-88F9-C5E96F6D5611}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nome" prompt="Digite o nome" sqref="C23:D24" xr:uid="{E06B644A-C882-4A0D-9789-C4F9FF0FD3AC}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F64:F67" xr:uid="{49B53EC3-CD79-44AB-B62F-01B83708A09F}">
       <formula1>"Entregue, Não Entregue"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="+" prompt="Descreva o tipo de alojamento." sqref="E21:G21" xr:uid="{9765E800-BDD7-4302-A6BD-21C1D1B5B735}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Contactos" prompt="tel; e-mail" sqref="F22:G23" xr:uid="{56546D94-A7E0-46A1-9CA5-895BE8C5E5E5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="+" prompt="há backup? Regularidade, tipo de backup, disponibilidade" sqref="C25:G26 C59:G60" xr:uid="{8C83B8BA-0673-4A0F-AC57-A484A6C8BA42}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data" prompt="dd-mm-aaaa" sqref="E28:F28 E51:F51" xr:uid="{D97A66FF-65D2-4F5F-AA4C-D2DA257A7666}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="+" prompt="Descreva o tipo de alojamento." sqref="E22:G22" xr:uid="{9765E800-BDD7-4302-A6BD-21C1D1B5B735}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Contactos" prompt="tel; e-mail" sqref="F23:G24" xr:uid="{56546D94-A7E0-46A1-9CA5-895BE8C5E5E5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="+" prompt="há backup? Regularidade, tipo de backup, disponibilidade" sqref="C26:G27 C60:G61" xr:uid="{8C83B8BA-0673-4A0F-AC57-A484A6C8BA42}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data" prompt="dd-mm-aaaa" sqref="E29:F29 E52:F52" xr:uid="{D97A66FF-65D2-4F5F-AA4C-D2DA257A7666}"/>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G64 G65 G66 G67" xr:uid="{AAE36C4A-D19D-4E02-8431-E8D18A44C5AF}">
+      <formula1>46023</formula1>
+      <formula2>51501</formula2>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C83" r:id="rId1" xr:uid="{A20BFCCA-CF83-4A23-959B-B9722349D8A5}"/>
+    <hyperlink ref="C84" r:id="rId1" xr:uid="{A20BFCCA-CF83-4A23-959B-B9722349D8A5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
